--- a/biology/Biologie cellulaire et moléculaire/Monocaténaire/Monocaténaire.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Monocaténaire/Monocaténaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Monocat%C3%A9naire</t>
+          <t>Monocaténaire</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,15 +490,17 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Monocaténaire ou simple brin (sb, en anglais single strand, ss) définit une molécule d'acide nucléique (ADN ou ARN) non appariée à une autre molécule complémentaire. 
 Il s'agit donc d'un seul brin d'acide nucléique.
-L'ARN messager est monocaténaire[1] car il est constitué d'un seul brin et n'est pas apparié à un autre brin d'acide nucléique complémentaire.
+L'ARN messager est monocaténaire car il est constitué d'un seul brin et n'est pas apparié à un autre brin d'acide nucléique complémentaire.
 Les acides nucléiques appariés à un brin complémentaire, comme l'ADN génomique, sont dits bicaténaires, car ils sont composés de deux brins.
 La présence d'un ADN monocaténaire est une clé de classification des virus à ADN. 
 Le premier virus à ADN simple brin identifié a été le phage phiX174. 
-Le caractère monocaténaire de son génome a permis d'étudier la réplication de l'ADN et de réaliser les premières expériences de séquençage[2].
+Le caractère monocaténaire de son génome a permis d'étudier la réplication de l'ADN et de réaliser les premières expériences de séquençage.
 </t>
         </is>
       </c>
